--- a/英语3班5组/3班5组2ndHomework_abstract.xlsx
+++ b/英语3班5组/3班5组2ndHomework_abstract.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciryl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ciryl\Desktop\高级写作他妈的作业\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F1117E-7BE6-4704-8D81-ADF34A784E60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF46CAC-53A0-4CD2-83AF-21E886146BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9AF7645E-0F89-4DFA-8157-AC13E33203E1}"/>
   </bookViews>
@@ -233,10 +233,6 @@
     <t>Timothy Yu lays the groundwork for a discourse on the deployment of Orientalism in modernist and postmodernist literature and film to construct urban spaces. He initiates this discussion by dissecting James Joyce's "Ulysses" to demonstrate how early modernist works integrated Orientalist signifiers within the Western urban landscape. Yu then suggests that this pattern sets the stage for the portrayal of Orientalism in postmodern science fiction, where future cities are rendered as Asian or Orientalized spaces, reflecting the apprehensions and fantasies of Western societies.</t>
   </si>
   <si>
-    <t>Cyberpunk and the Dilemmas of Postmodern Narrative: The Example of William Gibson</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>G. Hui, R. Babaee_2015_International Journal of Comparative Literature &amp; Translation Studies_The Identity of Female Cyborg in William Gibson’s Neuromancer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -444,6 +440,10 @@
   </si>
   <si>
     <t>3班5组</t>
+  </si>
+  <si>
+    <t>Claire Sponsler_1992_Contemporary Literature_Cyberpunk and the Dilemmas of Postmodern Narrative: The Example of William Gibson</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -964,7 +964,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="45.33203125" defaultRowHeight="23.4"/>
@@ -979,16 +979,16 @@
   <sheetData>
     <row r="1" spans="1:9" ht="21.15" customHeight="1" thickBot="1">
       <c r="A1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -1008,7 +1008,7 @@
     </row>
     <row r="2" spans="1:9" ht="201.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -1033,16 +1033,16 @@
     </row>
     <row r="3" spans="1:9" ht="186.15" customHeight="1" thickBot="1">
       <c r="A3" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="2">
         <v>212241811424</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>26</v>
@@ -1062,16 +1062,16 @@
     </row>
     <row r="4" spans="1:9" ht="145.80000000000001" customHeight="1" thickTop="1" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="3">
         <v>212241811426</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>21</v>
@@ -1091,39 +1091,39 @@
     </row>
     <row r="5" spans="1:9" ht="192.6" customHeight="1" thickBot="1">
       <c r="A5" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5" s="2">
         <v>212241811427</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="G5" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="H5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="I5" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="216.15" customHeight="1" thickTop="1" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C6" s="3">
         <v>212241811428</v>
